--- a/Clocks_and_Timers_.xlsx
+++ b/Clocks_and_Timers_.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="16275" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>AHBPrescaler</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>Output Frequency</t>
+  </si>
+  <si>
+    <t>Timer2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,37 +135,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -278,7 +251,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -313,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -489,17 +460,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -507,7 +478,7 @@
     <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -515,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -549,15 +520,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16">
       <c r="A4">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>210</v>
+        <v>336</v>
       </c>
       <c r="D4">
         <f>A4/C3*C4/C5</f>
@@ -593,7 +564,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -608,12 +579,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16">
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N6" t="s">
         <v>12</v>
@@ -623,7 +594,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16">
       <c r="N7" t="s">
         <v>13</v>
       </c>
@@ -632,7 +603,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="N8" t="s">
         <v>16</v>
       </c>
@@ -641,7 +612,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="N9" t="s">
         <v>14</v>
       </c>
@@ -650,7 +621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="N10" t="s">
         <v>15</v>
       </c>
@@ -659,43 +630,65 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="N12" t="s">
         <v>20</v>
       </c>
       <c r="P12">
         <f>A4/C3*C4/C6</f>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
         <v>22</v>
       </c>
       <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
         <v>23</v>
       </c>
       <c r="C19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
         <v>24</v>
       </c>
       <c r="C22">
         <f>P10/C18/C19/2</f>
-        <v>28</v>
+        <v>42</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <f>P8/F18/F19/2</f>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -719,24 +712,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
